--- a/data/nzd0555/nzd0555.xlsx
+++ b/data/nzd0555/nzd0555.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6483,6 +6483,66 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6499,7 +6559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9517,6 +9577,36 @@
       </c>
       <c r="B301" t="n">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -10154,7 +10244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16214,6 +16304,66 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0555/nzd0555.xlsx
+++ b/data/nzd0555/nzd0555.xlsx
@@ -9620,7 +9620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9711,35 +9711,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -9782,27 +9787,28 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.2868632897248 -46.620204344351855, 169.28578851755617 -46.62802963107834)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.2868632897248</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.62020434435185</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.2857885175562</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.62802963107834</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.2863259036405</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.6241169877151</v>
       </c>
     </row>
@@ -9843,27 +9849,28 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.28596672605045 -46.620166159029964, 169.28489186641585 -46.6279914382747)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.2859667260504</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.62016615902996</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.2848918664158</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.6279914382747</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.2854292962331</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.62407879865233</v>
       </c>
     </row>
@@ -9904,27 +9911,28 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.28507016237586 -46.620127973681555, 169.283995215276 -46.62795324544326)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.2850701623759</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.62012797368156</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.283995215276</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.62795324544326</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.2845326888259</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.62404060956241</v>
       </c>
     </row>
@@ -9965,27 +9973,28 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.28417359870107 -46.62008978830663, 169.28309856413654 -46.62791505258399)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.2841735987011</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.62008978830663</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.2830985641365</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.62791505258399</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.2836360814188</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.62400242044531</v>
       </c>
     </row>
@@ -10026,27 +10035,28 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.28327703502617 -46.620051602905235, 169.28220191299732 -46.627876859696904)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.2832770350262</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.62005160290524</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.2822019129973</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.6278768596969</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.2827394740117</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.62396423130107</v>
       </c>
     </row>
@@ -10087,27 +10097,28 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.28238047135113 -46.62001341747733, 169.28130526185834 -46.62783866678204)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.2823804713511</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.62001341747733</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.2813052618583</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.62783866678204</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.2818428666047</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.62392604212968</v>
       </c>
     </row>
@@ -10148,27 +10159,28 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.28148390767595 -46.619975232022895, 169.2804086107197 -46.62780047383934)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.2814839076759</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.6199752320229</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.2804086107197</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.62780047383934</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.2809462591978</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.62388785293112</v>
       </c>
     </row>
@@ -10209,27 +10221,28 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.28058734400065 -46.619937046542, 169.27951195958133 -46.62776228086886)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.2805873440007</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.619937046542</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.2795119595813</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.62776228086886</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.280049651791</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.62384966370543</v>
       </c>
     </row>

--- a/data/nzd0555/nzd0555.xlsx
+++ b/data/nzd0555/nzd0555.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J304"/>
+  <dimension ref="A1:J307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6543,6 +6543,66 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6559,7 +6619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9607,6 +9667,36 @@
       </c>
       <c r="B304" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -10257,7 +10347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J304"/>
+  <dimension ref="A1:J307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16377,6 +16467,66 @@
         </is>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0555/nzd0555.xlsx
+++ b/data/nzd0555/nzd0555.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6603,6 +6603,26 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6619,7 +6639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9697,6 +9717,16 @@
       </c>
       <c r="B307" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -10347,7 +10377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16527,6 +16557,26 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0555/nzd0555.xlsx
+++ b/data/nzd0555/nzd0555.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0555/nzd0555.xlsx
+++ b/data/nzd0555/nzd0555.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6623,6 +6623,66 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6639,7 +6699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9727,6 +9787,36 @@
       </c>
       <c r="B308" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -10377,7 +10467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16577,6 +16667,66 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0555/nzd0555.xlsx
+++ b/data/nzd0555/nzd0555.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6683,6 +6683,46 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6699,7 +6739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9817,6 +9857,26 @@
       </c>
       <c r="B311" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -10467,7 +10527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16727,6 +16787,46 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0555/nzd0555.xlsx
+++ b/data/nzd0555/nzd0555.xlsx
@@ -10040,9 +10040,15 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0346</v>
+      </c>
       <c r="I2" t="n">
         <v>1.961017253966386</v>
       </c>
@@ -10102,9 +10108,15 @@
       <c r="E3" t="n">
         <v>0.8571428571428453</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0189</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0285</v>
+      </c>
       <c r="I3" t="n">
         <v>1.67556613244628</v>
       </c>
@@ -10164,9 +10176,15 @@
       <c r="E4" t="n">
         <v>0.7142857142856084</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0308</v>
+      </c>
       <c r="I4" t="n">
         <v>-0.7078573241519746</v>
       </c>
@@ -10226,9 +10244,15 @@
       <c r="E5" t="n">
         <v>0.5714285714284537</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.039</v>
+      </c>
       <c r="I5" t="n">
         <v>-1.282883911565202</v>
       </c>
@@ -10288,9 +10312,15 @@
       <c r="E6" t="n">
         <v>0.4285714285712167</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0733</v>
+      </c>
       <c r="I6" t="n">
         <v>-1.482728507423777</v>
       </c>
@@ -10350,9 +10380,15 @@
       <c r="E7" t="n">
         <v>0.2857142857142269</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0294</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0585</v>
+      </c>
       <c r="I7" t="n">
         <v>-0.5177918415407646</v>
       </c>
@@ -10412,9 +10448,15 @@
       <c r="E8" t="n">
         <v>0.1428571428570723</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0704</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.08507288995145326</v>
       </c>
@@ -10474,9 +10516,15 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0224</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0341</v>
+      </c>
       <c r="I9" t="n">
         <v>-1.445862396094359</v>
       </c>
